--- a/data/steel/factories/charcoal_factory.xlsx
+++ b/data/steel/factories/charcoal_factory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB60CA6-91B2-4945-AE36-EF8DD10460D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="600" windowWidth="20355" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -20,11 +21,8 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -96,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,7 +155,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -267,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -468,21 +466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -499,7 +497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -513,48 +511,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,20 +595,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="F2" s="3"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="3"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>